--- a/medicine/Handicap/D'un_monde_à_l'autre_(téléfilm)/D'un_monde_à_l'autre_(téléfilm).xlsx
+++ b/medicine/Handicap/D'un_monde_à_l'autre_(téléfilm)/D'un_monde_à_l'autre_(téléfilm).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'un monde à l'autre est un téléfilm français réalisé par Didier Bivel et diffusé le 3 décembre 2019 sur France 3[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'un monde à l'autre est un téléfilm français réalisé par Didier Bivel et diffusé le 3 décembre 2019 sur France 3.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas, 50 ans, devient paraplégique à la suite d'un accident de voiture.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisateur : Didier Bivel
 Scénario : Denis Braccini, Nicolas Pleskof
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pascal Demolon : Thomas Pélissier
 Anne Marivin : Camille Pélissier
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,9 +642,11 @@
           <t>Diffusion</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le téléfilm est diffusé sur France 3 à l'occasion de la Journée mondiale des personnes handicapées, le 3 décembre 2019[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le téléfilm est diffusé sur France 3 à l'occasion de la Journée mondiale des personnes handicapées, le 3 décembre 2019.
 </t>
         </is>
       </c>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,9 +675,11 @@
           <t>Accueil critique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le magazine belge Moustique parle d'« un téléfilm plein d'espoir »[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le magazine belge Moustique parle d'« un téléfilm plein d'espoir ».
 </t>
         </is>
       </c>
@@ -668,7 +690,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%27un_monde_%C3%A0_l%27autre_(t%C3%A9l%C3%A9film)</t>
+          <t>D'un_monde_à_l'autre_(téléfilm)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -686,7 +708,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Festival des créations télévisuelles de Luchon 2019 :
 Prix du public de la fiction unitaire
